--- a/word toolkit.xlsx
+++ b/word toolkit.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14400" windowHeight="11500"/>
+    <workbookView windowWidth="28800" windowHeight="11500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,10 +16,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -38,9 +38,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -48,6 +55,89 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -61,14 +151,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -77,14 +159,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -94,81 +168,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -183,187 +183,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -377,35 +377,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -440,17 +422,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -474,147 +450,171 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1027,6 +1027,48 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>155575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="14579600"/>
+          <a:ext cx="11420475" cy="1933575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1290,8 +1332,8 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="107" zoomScaleNormal="107" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="H79" sqref="H79"/>
+    <sheetView tabSelected="1" zoomScale="107" zoomScaleNormal="107" topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="A83" sqref="A83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>

--- a/word toolkit.xlsx
+++ b/word toolkit.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11500"/>
+    <workbookView windowWidth="28800" windowHeight="10800"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,8 +16,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -45,33 +45,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -82,26 +67,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -115,17 +85,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -133,21 +95,6 @@
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -160,6 +107,59 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -168,7 +168,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -189,31 +189,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -225,145 +363,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -377,17 +377,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -422,40 +425,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -474,144 +454,164 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1069,6 +1069,48 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>363855</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>15875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="16713200"/>
+          <a:ext cx="4752975" cy="1971675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1332,8 +1374,8 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="107" zoomScaleNormal="107" topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="A83" sqref="A83"/>
+    <sheetView tabSelected="1" zoomScale="107" zoomScaleNormal="107" topLeftCell="A87" workbookViewId="0">
+      <selection activeCell="H101" sqref="H101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>

--- a/word toolkit.xlsx
+++ b/word toolkit.xlsx
@@ -16,10 +16,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -39,14 +39,75 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -60,6 +121,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -69,98 +145,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -183,31 +183,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -219,145 +357,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -382,15 +382,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -425,6 +416,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -436,6 +436,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -457,15 +466,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -479,142 +479,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1111,6 +1111,48 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>392430</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="18846800"/>
+          <a:ext cx="4781550" cy="1371600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1375,7 +1417,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="107" zoomScaleNormal="107" topLeftCell="A87" workbookViewId="0">
-      <selection activeCell="H101" sqref="H101"/>
+      <selection activeCell="A107" sqref="A107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
